--- a/Mypaper/tables/4.6风险因素影响统计分析.xlsx
+++ b/Mypaper/tables/4.6风险因素影响统计分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>需求不明确风险因素R</t>
     </r>
     <r>
@@ -69,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>需求蔓延风险因素R</t>
     </r>
     <r>
@@ -95,6 +109,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>需求持续变更风险因素R</t>
     </r>
     <r>
@@ -121,6 +142,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>技术过于新颖风险因素R</t>
     </r>
     <r>
@@ -147,6 +175,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>网络攻击风险因素R</t>
     </r>
     <r>
@@ -173,6 +208,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>开发工具的选择风险因素R</t>
     </r>
     <r>
@@ -199,6 +241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>开发语言的选择风险因素R</t>
     </r>
     <r>
@@ -223,6 +271,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>人员离职风险因素R</t>
     </r>
     <r>
@@ -249,6 +304,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>开发人员的团队协作能力风险因素R</t>
     </r>
     <r>
@@ -275,6 +337,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>项目成员缺少主动性风险因素R</t>
     </r>
     <r>
@@ -301,6 +370,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>项目经理的过于强势风险因素R</t>
     </r>
     <r>
@@ -327,6 +403,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>团队成员沟通风险因素R</t>
     </r>
     <r>
@@ -353,6 +436,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>项目经理专业性不强风险因素R</t>
     </r>
     <r>
@@ -379,6 +469,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>缺乏公司高层支持风险因素R</t>
     </r>
     <r>
@@ -405,6 +502,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>用户预期过高风险因素R</t>
     </r>
     <r>
@@ -431,6 +535,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>用户与软件开发人员有冲突风险因素R</t>
     </r>
     <r>
@@ -457,6 +568,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>用户参与度不足风险因素R</t>
     </r>
     <r>
@@ -483,6 +601,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>供应商延迟交付风险因素R</t>
     </r>
     <r>
@@ -509,6 +634,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>供应商技术支持力度不够风险因素R</t>
     </r>
     <r>
@@ -535,6 +667,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>目资源向其他项目偏移风险因素R</t>
     </r>
     <r>
@@ -561,6 +700,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>缺少软件经验教训文档风险因素R</t>
     </r>
     <r>
@@ -587,6 +733,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>中国Android取消授权风险因素R</t>
     </r>
     <r>
@@ -613,6 +766,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>应用无法上架应用市场风险因素R</t>
     </r>
     <r>
@@ -644,18 +804,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +831,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -685,53 +845,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,11 +866,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,32 +913,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,7 +939,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,61 +1006,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,146 +1190,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1075,24 +1215,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,36 +1254,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1175,6 +1278,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1190,177 +1317,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,7 +1826,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A1" sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1731,16 +1843,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1748,16 +1860,16 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -1768,19 +1880,19 @@
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>201</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>39</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3">
@@ -1797,19 +1909,19 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>223</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4">
@@ -1826,19 +1938,19 @@
       </c>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>215</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5">
@@ -1855,19 +1967,19 @@
       </c>
     </row>
     <row r="6" ht="15" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>69</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>105</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>66</v>
       </c>
       <c r="F6">
@@ -1884,19 +1996,19 @@
       </c>
     </row>
     <row r="7" ht="15" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>87</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>97</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>47</v>
       </c>
       <c r="F7">
@@ -1913,19 +2025,19 @@
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>117</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>109</v>
       </c>
       <c r="F8">
@@ -1942,19 +2054,19 @@
       </c>
     </row>
     <row r="9" ht="15" spans="1:8">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>116</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>113</v>
       </c>
       <c r="F9">
@@ -1971,19 +2083,19 @@
       </c>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>189</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>37</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10">
@@ -2000,19 +2112,19 @@
       </c>
     </row>
     <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>96</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>106</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>37</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11">
@@ -2029,19 +2141,19 @@
       </c>
     </row>
     <row r="12" ht="15" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>72</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <v>92</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>76</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12">
@@ -2058,19 +2170,19 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>32</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>96</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>89</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="1">
         <v>25</v>
       </c>
       <c r="F13">
@@ -2087,19 +2199,19 @@
       </c>
     </row>
     <row r="14" ht="15" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>236</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14">
@@ -2116,19 +2228,19 @@
       </c>
     </row>
     <row r="15" ht="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>87</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>75</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>62</v>
       </c>
       <c r="F15">
@@ -2145,48 +2257,48 @@
       </c>
     </row>
     <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>183</v>
       </c>
-      <c r="C16" s="5">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="1">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>3.71074380165289</v>
+        <v>3.74793388429752</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:8">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>21</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="1">
         <v>97</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>76</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="1">
         <v>48</v>
       </c>
       <c r="F17">
@@ -2203,19 +2315,19 @@
       </c>
     </row>
     <row r="18" ht="15" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="1">
         <v>25</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>97</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="1">
         <v>111</v>
       </c>
       <c r="F18">
@@ -2232,19 +2344,19 @@
       </c>
     </row>
     <row r="19" ht="15" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="1">
         <v>23</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>117</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>95</v>
       </c>
       <c r="F19">
@@ -2261,19 +2373,19 @@
       </c>
     </row>
     <row r="20" ht="15" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>135</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="1">
         <v>88</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="1">
         <v>17</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20">
@@ -2290,19 +2402,19 @@
       </c>
     </row>
     <row r="21" ht="15" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <v>158</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="1">
         <v>64</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="1">
         <v>16</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="1">
         <v>4</v>
       </c>
       <c r="F21">
@@ -2319,19 +2431,19 @@
       </c>
     </row>
     <row r="22" ht="15" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <v>192</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="1">
         <v>42</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22">
@@ -2348,19 +2460,19 @@
       </c>
     </row>
     <row r="23" ht="15" spans="1:8">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="1">
         <v>36</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>156</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="1">
         <v>40</v>
       </c>
       <c r="F23">
@@ -2377,19 +2489,19 @@
       </c>
     </row>
     <row r="24" ht="15" spans="1:8">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <v>239</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24">
@@ -2406,19 +2518,19 @@
       </c>
     </row>
     <row r="25" ht="15" spans="1:8">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <v>10</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="1">
         <v>78</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <v>89</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="1">
         <v>65</v>
       </c>
       <c r="F25">

--- a/Mypaper/tables/4.6风险因素影响统计分析.xlsx
+++ b/Mypaper/tables/4.6风险因素影响统计分析.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\Mypaper\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC421D6-3B10-47D8-92A0-817E40A1DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,6 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -58,6 +75,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -68,6 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -80,6 +99,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,6 +111,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,6 +122,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,6 +135,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,6 +147,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -134,6 +158,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,6 +171,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,6 +183,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,6 +194,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,6 +207,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,6 +219,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,6 +230,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,6 +243,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,6 +255,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,6 +266,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,6 +279,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开发语言的选择风险因素R</t>
@@ -255,6 +290,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
@@ -264,6 +300,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>样本数量</t>
@@ -275,6 +312,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,6 +324,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,6 +335,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -308,6 +348,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,6 +360,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -329,6 +371,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -341,6 +384,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -352,6 +396,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -362,6 +407,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,6 +420,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,6 +432,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,6 +443,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -407,6 +456,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -418,6 +468,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,6 +479,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,6 +492,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -451,6 +504,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -461,6 +515,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,6 +528,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -484,6 +540,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +551,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,6 +564,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -517,6 +576,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,6 +587,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +600,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -550,6 +612,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -560,6 +623,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,6 +636,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -583,6 +648,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,6 +659,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,6 +672,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -616,6 +684,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -626,6 +695,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -638,6 +708,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -649,6 +720,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -659,6 +731,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,6 +744,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -682,6 +756,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -692,6 +767,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -704,6 +780,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -715,6 +792,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,6 +803,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -737,6 +816,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -748,6 +828,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -758,6 +839,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -770,6 +852,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,6 +864,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,6 +875,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -801,14 +886,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +899,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -827,150 +907,15 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -978,6 +923,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -986,6 +932,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -994,204 +941,26 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1200,273 +969,180 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
+      <left/>
+      <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,62 +1151,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1817,19 +1476,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E25"/>
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -1839,37 +1498,37 @@
     <col min="8" max="8" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -1879,20 +1538,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:8">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>201</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>39</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3">
@@ -1905,23 +1564,23 @@
       </c>
       <c r="H3">
         <f>SUM(G3/242)</f>
-        <v>3.82231404958678</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="2" t="s">
+        <v>3.8223140495867769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>223</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4">
@@ -1934,23 +1593,23 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H25" si="2">SUM(G4/242)</f>
-        <v>3.91735537190083</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="2" t="s">
+        <v>3.9173553719008263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>215</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>26</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5">
@@ -1963,23 +1622,23 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>3.88429752066116</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:8">
-      <c r="A6" s="2" t="s">
+        <v>3.884297520661157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>105</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>66</v>
       </c>
       <c r="F6">
@@ -1992,23 +1651,23 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>2.02892561983471</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:8">
-      <c r="A7" s="2" t="s">
+        <v>2.0289256198347108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>87</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>97</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>47</v>
       </c>
       <c r="F7">
@@ -2021,23 +1680,23 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>2.25619834710744</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:8">
-      <c r="A8" s="2" t="s">
+        <v>2.2561983471074378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>117</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>109</v>
       </c>
       <c r="F8">
@@ -2050,23 +1709,23 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>1.62809917355372</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:8">
-      <c r="A9" s="3" t="s">
+        <v>1.6280991735537189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>116</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>113</v>
       </c>
       <c r="F9">
@@ -2079,23 +1738,23 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>1.59504132231405</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="2" t="s">
+        <v>1.5950413223140496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>189</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>37</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10">
@@ -2108,23 +1767,23 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>3.71487603305785</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="2" t="s">
+        <v>3.7148760330578514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>96</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>106</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>37</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11">
@@ -2140,20 +1799,20 @@
         <v>3.21900826446281</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:8">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>72</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>92</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>76</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12">
@@ -2166,23 +1825,23 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>2.96694214876033</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:8">
-      <c r="A13" s="2" t="s">
+        <v>2.9669421487603307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>32</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>96</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>89</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>25</v>
       </c>
       <c r="F13">
@@ -2195,23 +1854,23 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>2.55785123966942</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:8">
-      <c r="A14" s="2" t="s">
+        <v>2.5578512396694215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>236</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14">
@@ -2224,23 +1883,23 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>3.97107438016529</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:8">
-      <c r="A15" s="2" t="s">
+        <v>3.9710743801652892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>18</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>87</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>75</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>62</v>
       </c>
       <c r="F15">
@@ -2253,23 +1912,23 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>2.25206611570248</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="2" t="s">
+        <v>2.2520661157024793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>183</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>57</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16">
@@ -2282,23 +1941,23 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>3.74793388429752</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:8">
-      <c r="A17" s="2" t="s">
+        <v>3.7479338842975207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>97</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>76</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>48</v>
       </c>
       <c r="F17">
@@ -2311,23 +1970,23 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>2.37603305785124</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:8">
-      <c r="A18" s="2" t="s">
+        <v>2.3760330578512399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>9</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>25</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>97</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>111</v>
       </c>
       <c r="F18">
@@ -2343,20 +2002,20 @@
         <v>1.71900826446281</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:8">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>23</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>117</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>95</v>
       </c>
       <c r="F19">
@@ -2369,23 +2028,23 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>1.7603305785124</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:8">
-      <c r="A20" s="2" t="s">
+        <v>1.7603305785123966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>135</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>88</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>17</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20">
@@ -2398,23 +2057,23 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>3.47107438016529</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:8">
-      <c r="A21" s="2" t="s">
+        <v>3.4710743801652892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>158</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>64</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>16</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>4</v>
       </c>
       <c r="F21">
@@ -2427,23 +2086,23 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>3.55371900826446</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:8">
-      <c r="A22" s="2" t="s">
+        <v>3.553719008264463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>192</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>42</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22">
@@ -2456,23 +2115,23 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>3.74793388429752</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:8">
-      <c r="A23" s="2" t="s">
+        <v>3.7479338842975207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>36</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>156</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>40</v>
       </c>
       <c r="F23">
@@ -2485,23 +2144,23 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>2.06611570247934</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:8">
-      <c r="A24" s="2" t="s">
+        <v>2.0661157024793386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>239</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24">
@@ -2514,23 +2173,23 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>3.98760330578512</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:8">
-      <c r="A25" s="2" t="s">
+        <v>3.9876033057851239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>10</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>78</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="7">
         <v>89</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="8">
         <v>65</v>
       </c>
       <c r="F25">
@@ -2543,46 +2202,41 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>2.13636363636364</v>
-      </c>
-    </row>
+        <v>2.1363636363636362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>